--- a/zero_point/info_collection.xlsx
+++ b/zero_point/info_collection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murad_satabaev\Documents\GitHub\final_framework\zero_point\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944982D7-B8AB-4622-958D-E27FC5E22004}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798AF2B1-08EF-4ABF-A446-991C7EE76B8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="104">
   <si>
     <t>info_source</t>
   </si>
@@ -294,9 +293,6 @@
     <t>assistant_distribution</t>
   </si>
   <si>
-    <t>список актуальных медорганизаций для данного месяца</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -333,22 +329,19 @@
     <t>int</t>
   </si>
   <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>dict</t>
-  </si>
-  <si>
     <t>same_mo_assistants</t>
   </si>
   <si>
-    <t>doctor_</t>
-  </si>
-  <si>
     <t>список распределенных медорганизаций и врачей по помощникам</t>
   </si>
   <si>
     <t>assistants_presence</t>
+  </si>
+  <si>
+    <t>список актуальных медорганизаций для данного месяца c короткими названиями и месяцами актуальности</t>
+  </si>
+  <si>
+    <t>dataframe</t>
   </si>
 </sst>
 </file>
@@ -695,21 +688,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.90625" customWidth="1"/>
-    <col min="2" max="2" width="36.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="36.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,13 +716,13 @@
         <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -746,10 +739,10 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -766,10 +759,10 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -786,10 +779,10 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -806,10 +799,10 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -826,10 +819,10 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -846,10 +839,10 @@
         <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -866,10 +859,10 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -886,10 +879,10 @@
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -906,10 +899,10 @@
         <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -926,10 +919,10 @@
         <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -946,10 +939,10 @@
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -966,10 +959,10 @@
         <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -986,10 +979,10 @@
         <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1006,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1020,7 +1013,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1031,7 +1024,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1048,10 +1041,10 @@
         <v>55</v>
       </c>
       <c r="F18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1068,10 +1061,10 @@
         <v>54</v>
       </c>
       <c r="F19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -1088,10 +1081,10 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -1108,10 +1101,10 @@
         <v>70</v>
       </c>
       <c r="F22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -1128,10 +1121,10 @@
         <v>71</v>
       </c>
       <c r="F23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -1148,10 +1141,10 @@
         <v>72</v>
       </c>
       <c r="F24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -1168,10 +1161,10 @@
         <v>73</v>
       </c>
       <c r="F25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -1188,10 +1181,10 @@
         <v>75</v>
       </c>
       <c r="F26" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -1208,10 +1201,10 @@
         <v>74</v>
       </c>
       <c r="F27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -1225,10 +1218,10 @@
         <v>84</v>
       </c>
       <c r="F29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -1242,10 +1235,10 @@
         <v>79</v>
       </c>
       <c r="F30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -1259,10 +1252,10 @@
         <v>81</v>
       </c>
       <c r="F31" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -1276,10 +1269,10 @@
         <v>80</v>
       </c>
       <c r="F32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -1293,76 +1286,73 @@
         <v>85</v>
       </c>
       <c r="F33" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>86</v>
       </c>
       <c r="C36" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>100</v>
+      </c>
+      <c r="F37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" t="s">
+        <v>99</v>
+      </c>
+      <c r="F38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" t="s">
         <v>87</v>
       </c>
-      <c r="F36" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C37" t="s">
-        <v>104</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="F40" t="s">
         <v>103</v>
       </c>
-      <c r="F37" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C38" t="s">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>89</v>
       </c>
-      <c r="E38" t="s">
-        <v>102</v>
-      </c>
-      <c r="F38" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" t="s">
-        <v>88</v>
-      </c>
-      <c r="F40" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
